--- a/exec/symlex_vpn_windows/windows issues.xlsx
+++ b/exec/symlex_vpn_windows/windows issues.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D31551-0E23-405E-AF95-F16EF439F06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675AB6F1-4089-47DA-8E09-DB726E74D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Steps</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>[windows-desktop] : clicking upper outside of the username field in signup page taking to login page</t>
+  </si>
+  <si>
+    <t>net is off, go to menu page, click on 'free bonus', "could not connect to the server" is showing, click on 'ok', app is crashing</t>
+  </si>
+  <si>
+    <t>[windows-desktop]: app is crashing if clicking free bonus while net is off</t>
+  </si>
+  <si>
+    <t>goto menu page after login, click on 'free bonus', click on 'ok'</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -374,6 +383,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,13 +1036,19 @@
         <v>7859</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8306</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
